--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1371.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1371.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.22558844574193</v>
+        <v>1.24677300453186</v>
       </c>
       <c r="B1">
-        <v>2.557629775015143</v>
+        <v>2.648993015289307</v>
       </c>
       <c r="C1">
-        <v>3.583683214457523</v>
+        <v>8.482213973999023</v>
       </c>
       <c r="D1">
-        <v>2.968068622052225</v>
+        <v>2.113804817199707</v>
       </c>
       <c r="E1">
-        <v>1.12191424795659</v>
+        <v>1.141023635864258</v>
       </c>
     </row>
   </sheetData>
